--- a/data_craw/quarter/income_statement_quarter/msb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/msb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491953000000</v>
+        <v>252720000000</v>
       </c>
       <c r="C4" t="n">
-        <v>94219000000</v>
+        <v>356916000000</v>
       </c>
       <c r="D4" t="n">
-        <v>79292000000</v>
+        <v>107038000000</v>
       </c>
       <c r="E4" t="n">
-        <v>232906000000</v>
+        <v>195316000000</v>
       </c>
       <c r="F4" t="n">
-        <v>252720000000</v>
+        <v>288625000000</v>
       </c>
       <c r="G4" t="n">
-        <v>356916000000</v>
+        <v>663854000000</v>
       </c>
       <c r="H4" t="n">
-        <v>107038000000</v>
+        <v>112333000000</v>
       </c>
       <c r="I4" t="n">
-        <v>195316000000</v>
+        <v>129363000000</v>
       </c>
       <c r="J4" t="n">
-        <v>288625000000</v>
+        <v>182694000000</v>
       </c>
       <c r="K4" t="n">
-        <v>663854000000</v>
+        <v>502389000000</v>
       </c>
       <c r="L4" t="n">
-        <v>112333000000</v>
+        <v>80501928732</v>
       </c>
       <c r="M4" t="n">
-        <v>129363000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>182694000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>502389000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80501928732</v>
-      </c>
-      <c r="Q4" t="n">
         <v>114694000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28813000000</v>
+        <v>81594000000</v>
       </c>
       <c r="C5" t="n">
-        <v>91213000000</v>
+        <v>80939000000</v>
       </c>
       <c r="D5" t="n">
-        <v>18083000000</v>
+        <v>16988000000</v>
       </c>
       <c r="E5" t="n">
-        <v>24478000000</v>
+        <v>211654000000</v>
       </c>
       <c r="F5" t="n">
-        <v>81594000000</v>
+        <v>128338000000</v>
       </c>
       <c r="G5" t="n">
-        <v>80939000000</v>
+        <v>235263000000</v>
       </c>
       <c r="H5" t="n">
-        <v>16988000000</v>
+        <v>356718000000</v>
       </c>
       <c r="I5" t="n">
-        <v>211654000000</v>
+        <v>520213000000</v>
       </c>
       <c r="J5" t="n">
-        <v>128338000000</v>
+        <v>299543000000</v>
       </c>
       <c r="K5" t="n">
-        <v>235263000000</v>
+        <v>173301000000</v>
       </c>
       <c r="L5" t="n">
-        <v>356718000000</v>
+        <v>235954753320</v>
       </c>
       <c r="M5" t="n">
-        <v>520213000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>299543000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>173301000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>235954753320</v>
-      </c>
-      <c r="Q5" t="n">
         <v>2892000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,13 +676,13 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>336228755651</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>336228755651</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -708,53 +692,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400408000000</v>
+        <v>553224000000</v>
       </c>
       <c r="C7" t="n">
-        <v>175515000000</v>
+        <v>683302000000</v>
       </c>
       <c r="D7" t="n">
-        <v>224322000000</v>
+        <v>898653000000</v>
       </c>
       <c r="E7" t="n">
-        <v>550298000000</v>
+        <v>1580273000000</v>
       </c>
       <c r="F7" t="n">
-        <v>553224000000</v>
+        <v>809551000000</v>
       </c>
       <c r="G7" t="n">
-        <v>683302000000</v>
+        <v>746260000000</v>
       </c>
       <c r="H7" t="n">
-        <v>898653000000</v>
+        <v>1149143000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1580273000000</v>
+        <v>1491994000000</v>
       </c>
       <c r="J7" t="n">
-        <v>809551000000</v>
+        <v>1202769000000</v>
       </c>
       <c r="K7" t="n">
-        <v>746260000000</v>
+        <v>772310000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1149143000000</v>
+        <v>1193947879755</v>
       </c>
       <c r="M7" t="n">
-        <v>1491994000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1202769000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>772310000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1193947879755</v>
-      </c>
-      <c r="Q7" t="n">
         <v>1617623000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -786,53 +762,45 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="C9" t="n">
-        <v>163</v>
+        <v>636</v>
       </c>
       <c r="D9" t="n">
-        <v>209</v>
+        <v>827</v>
       </c>
       <c r="E9" t="n">
-        <v>512</v>
+        <v>1366</v>
       </c>
       <c r="F9" t="n">
-        <v>515</v>
+        <v>691</v>
       </c>
       <c r="G9" t="n">
-        <v>636</v>
+        <v>489</v>
       </c>
       <c r="H9" t="n">
-        <v>827</v>
+        <v>752</v>
       </c>
       <c r="I9" t="n">
-        <v>1366</v>
+        <v>977</v>
       </c>
       <c r="J9" t="n">
-        <v>691</v>
+        <v>787</v>
       </c>
       <c r="K9" t="n">
-        <v>489</v>
+        <v>386</v>
       </c>
       <c r="L9" t="n">
-        <v>752</v>
+        <v>597</v>
       </c>
       <c r="M9" t="n">
-        <v>977</v>
-      </c>
-      <c r="N9" t="n">
-        <v>787</v>
-      </c>
-      <c r="O9" t="n">
-        <v>386</v>
-      </c>
-      <c r="P9" t="n">
-        <v>597</v>
-      </c>
-      <c r="Q9" t="n">
         <v>809</v>
       </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -850,13 +818,13 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3118515507146</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>3118515507146</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -898,13 +866,13 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1193947879755</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>1193947879755</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
